--- a/uploads/Sample Dataset.xlsx
+++ b/uploads/Sample Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365cmu-my.sharepoint.com/personal/newin_yamaguchi_cmu_ac_th/Documents/ISNE/year4semester2/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="407" documentId="8_{E3D1F33B-4ED7-4A1B-94B6-365BABD41ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A50F9D47-58FB-4921-B9C8-E8CFDA109FC2}"/>
+  <xr:revisionPtr revIDLastSave="556" documentId="8_{E3D1F33B-4ED7-4A1B-94B6-365BABD41ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D314B0E-F6AE-405A-8785-B1A13C57E0B4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9077A6BC-7D1E-4D00-9874-D20C1B3B1224}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="94">
   <si>
     <t>username</t>
   </si>
@@ -65,9 +65,6 @@
     <t>John Mayor</t>
   </si>
   <si>
-    <t>High School</t>
-  </si>
-  <si>
     <t>anonymous@cmu.ac.th</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Tim Henson</t>
   </si>
   <si>
-    <t>Bachelor Degree</t>
-  </si>
-  <si>
     <t>somewho@gmail.com</t>
   </si>
   <si>
@@ -95,15 +89,9 @@
     <t>Calculus 1</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
     <t>Saddam Hussein</t>
   </si>
   <si>
-    <t>Middle School</t>
-  </si>
-  <si>
     <t>loveablepeople@hotmail.com</t>
   </si>
   <si>
@@ -113,15 +101,9 @@
     <t>Fundamental English 1</t>
   </si>
   <si>
-    <t>unapprove</t>
-  </si>
-  <si>
     <t>Colton Campbell</t>
   </si>
   <si>
-    <t>High school</t>
-  </si>
-  <si>
     <t>gefani9439@taobudao.com</t>
   </si>
   <si>
@@ -134,9 +116,6 @@
     <t>Julian Cook</t>
   </si>
   <si>
-    <t>Vocational</t>
-  </si>
-  <si>
     <t>galavela@cenvalgolf.com</t>
   </si>
   <si>
@@ -149,9 +128,6 @@
     <t>Nolan Jones</t>
   </si>
   <si>
-    <t>Middle school</t>
-  </si>
-  <si>
     <t>ellakoko@crupma.com</t>
   </si>
   <si>
@@ -164,9 +140,6 @@
     <t>Caroline Green</t>
   </si>
   <si>
-    <t>Diploma</t>
-  </si>
-  <si>
     <t>sunkokosik@ps372.org</t>
   </si>
   <si>
@@ -185,9 +158,6 @@
     <t>Eloise Anderson</t>
   </si>
   <si>
-    <t xml:space="preserve">Bachelor degree </t>
-  </si>
-  <si>
     <t>kbob692@progrowclimate.com</t>
   </si>
   <si>
@@ -206,9 +176,6 @@
     <t>Emily Stewart</t>
   </si>
   <si>
-    <t>Master's degree</t>
-  </si>
-  <si>
     <t>larson28@blacktopindustries.net</t>
   </si>
   <si>
@@ -218,27 +185,18 @@
     <t>Jaxon Morales</t>
   </si>
   <si>
-    <t>Diploma </t>
-  </si>
-  <si>
     <t>stmul@boomtownmarket.com</t>
   </si>
   <si>
     <t>Leo Ward</t>
   </si>
   <si>
-    <t>High Vocational</t>
-  </si>
-  <si>
     <t>dewittbh@hearthtodon.com</t>
   </si>
   <si>
     <t>Wyatt Myers</t>
   </si>
   <si>
-    <t>Bachelor degree </t>
-  </si>
-  <si>
     <t>jakroii@tlcemail.eu</t>
   </si>
   <si>
@@ -290,9 +248,6 @@
     <t>sherms678@p2extraction.com</t>
   </si>
   <si>
-    <t>31-September</t>
-  </si>
-  <si>
     <t>Eleanor Miller</t>
   </si>
   <si>
@@ -332,26 +287,44 @@
     <t>Landon Watson</t>
   </si>
   <si>
-    <t>High school </t>
-  </si>
-  <si>
     <t>nwh670@hearthtodon.com</t>
   </si>
   <si>
     <t>Isaac Morgan</t>
   </si>
   <si>
-    <t xml:space="preserve">High school </t>
-  </si>
-  <si>
     <t>msimmel@gpaemail.eu</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>disapproval</t>
+  </si>
+  <si>
+    <t>Vocational degree</t>
+  </si>
+  <si>
+    <t>High vocational degree</t>
+  </si>
+  <si>
+    <t>High school degree</t>
+  </si>
+  <si>
+    <t>Middle school degree</t>
+  </si>
+  <si>
+    <t>Master degree</t>
+  </si>
+  <si>
+    <t>Diploma degree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,13 +366,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -426,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -434,10 +401,6 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -779,14 +742,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB338D9-CE99-4CD7-AAF4-26ADC60AB979}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
     <col min="4" max="4" width="34.44140625" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" customWidth="1"/>
     <col min="6" max="6" width="30.33203125" customWidth="1"/>
@@ -825,753 +788,753 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4">
+        <v>45292.62777777778</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>45292.669444444444</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="G3" s="4">
         <v>45292.787499999999</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2">
         <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4">
         <v>45323.590277777781</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5">
         <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="4">
-        <v>45602</v>
+        <v>45602.436111111114</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C6" s="5">
         <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="4">
-        <v>45643</v>
+        <v>45643.489583333336</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C7" s="5">
         <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G7" s="4">
-        <v>45351</v>
+        <v>45351.418749999997</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5">
         <v>35</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G8" s="4">
-        <v>45424</v>
+        <v>45424.48333333333</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5">
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4">
-        <v>45320</v>
+        <v>45320.625694444447</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5">
         <v>40</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="4">
-        <v>45538</v>
+        <v>45538.65902777778</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11" s="5">
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G11" s="4">
-        <v>45491</v>
+        <v>45491.484722222223</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C12" s="5">
         <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4">
-        <v>45592</v>
+        <v>45592.439583333333</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C13" s="5">
         <v>29</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="4">
-        <v>45356</v>
+        <v>45356.45416666667</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C14" s="5">
         <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G14" s="4">
-        <v>45325</v>
+        <v>45325.635416666664</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C15" s="5">
         <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45320.402777777781</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="4">
-        <v>45320</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>69</v>
+        <v>54</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C16" s="5">
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="4">
-        <v>45490</v>
+        <v>45490.395833333336</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C17" s="5">
         <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G17" s="4">
-        <v>45498</v>
+        <v>45498.487500000003</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="5">
         <v>33</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G18" s="4">
-        <v>45423</v>
+        <v>45423.438888888886</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C19" s="5">
         <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="4">
-        <v>45355</v>
+        <v>45355.634722222225</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="7" t="s">
         <v>63</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="C20" s="5">
         <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G20" s="4">
-        <v>45514</v>
+        <v>45514.677777777775</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="C21" s="5">
         <v>34</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G21" s="4">
-        <v>45426</v>
+        <v>45426.67083333333</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C22" s="5">
         <v>36</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>84</v>
+        <v>27</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45565.649305555555</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C23" s="5">
         <v>34</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G23" s="4">
-        <v>45589</v>
+        <v>45589.434027777781</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C24" s="5">
         <v>17</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="4">
-        <v>45520</v>
+        <v>45520.393750000003</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C25" s="5">
         <v>68</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G25" s="4">
-        <v>45372</v>
+        <v>45372.625694444447</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C26" s="5">
         <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="F26" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G26" s="4">
-        <v>45483</v>
+        <v>45483.679166666669</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="5">
         <v>22</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G27" s="4">
-        <v>45414</v>
+        <v>45414.421527777777</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>66</v>
+        <v>80</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C28" s="5">
         <v>23</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G28" s="4">
-        <v>45536</v>
+        <v>45536.478472222225</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>82</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C29" s="5">
         <v>50</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="4">
-        <v>45327</v>
+        <v>45327.625</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C30" s="5">
         <v>17</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G30" s="4">
-        <v>45300</v>
+        <v>45300.700694444444</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1579,311 +1542,311 @@
         <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2">
         <v>20</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G31" s="4">
-        <v>1</v>
+        <v>1.6319444444444444</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2">
         <v>25</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="4">
-        <v>45630</v>
+        <v>45630.661111111112</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2">
         <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G33" s="4">
-        <v>133</v>
+        <v>133.67986111111111</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C34" s="5">
         <v>16</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="4">
+        <v>306.44791666666669</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G34" s="4">
-        <v>306</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="C35" s="5">
         <v>27</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="4">
-        <v>157</v>
+        <v>157.4013888888889</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C36" s="5">
         <v>35</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G36" s="4">
-        <v>3</v>
+        <v>3.4263888888888889</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C37" s="5">
         <v>35</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G37" s="4">
-        <v>46</v>
+        <v>46.413888888888891</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="C38" s="5">
         <v>31</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="4">
+        <v>217.68194444444444</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G38" s="4">
-        <v>217</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C39" s="5">
         <v>40</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G39" s="4">
-        <v>321</v>
+        <v>321.45833333333331</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C40" s="5">
         <v>32</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G40" s="4">
-        <v>355</v>
+        <v>355.63263888888889</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C41" s="5">
         <v>32</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G41" s="4">
-        <v>116</v>
+        <v>116.64652777777778</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C42" s="5">
         <v>17</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="4">
-        <v>144</v>
+        <v>144.63124999999999</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -1891,77 +1854,77 @@
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C43" s="2">
         <v>20</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G43" s="4">
-        <v>202</v>
+        <v>202.67500000000001</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="C44" s="2">
         <v>25</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G44" s="4">
-        <v>249</v>
+        <v>249.6826388888889</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2">
         <v>15</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G45" s="4">
-        <v>9</v>
+        <v>9.4645833333333336</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/Sample Dataset.xlsx
+++ b/uploads/Sample Dataset.xlsx
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB338D9-CE99-4CD7-AAF4-26ADC60AB979}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/uploads/Sample Dataset.xlsx
+++ b/uploads/Sample Dataset.xlsx
@@ -743,7 +743,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
